--- a/output_excel/obj_MINIPAKsro_ORDER2025097_filled_order_note.xlsx
+++ b/output_excel/obj_MINIPAKsro_ORDER2025097_filled_order_note.xlsx
@@ -3038,7 +3038,7 @@
       </c>
       <c r="B12" s="80" t="inlineStr">
         <is>
-          <t>Bright Mode</t>
+          <t>Age Decode</t>
         </is>
       </c>
       <c r="C12" s="81" t="inlineStr">
@@ -3092,7 +3092,7 @@
       </c>
       <c r="B13" s="86" t="inlineStr">
         <is>
-          <t>Pore Control</t>
+          <t>Bright Mode</t>
         </is>
       </c>
       <c r="C13" s="87" t="inlineStr">
@@ -3142,7 +3142,7 @@
       </c>
       <c r="B14" s="86" t="inlineStr">
         <is>
-          <t>Fine Mode</t>
+          <t>Pore Control</t>
         </is>
       </c>
       <c r="C14" s="87" t="inlineStr">
